--- a/output/dynamic_dataset2.xlsx
+++ b/output/dynamic_dataset2.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="36">
   <si>
     <t>the best wallet</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>total cost</t>
@@ -30,10 +33,10 @@
     <t>total return</t>
   </si>
   <si>
-    <t>report</t>
+    <t>reported error</t>
   </si>
   <si>
-    <t>['Share-ECAQ', 'Share-IXCI', 'Share-FWBE', 'Share-ZOFA', 'Share-PLLK', 'Share-MEQV', 'Share-ANFX', 'Share-PSMF', 'Share-PATS', 'Share-VCXT', 'Share-NDKR', 'Share-ALIY', 'Share-JWGF', 'Share-FAKH', 'Share-JGTW', 'Share-FAPS', 'Share-LFXB', 'Share-DWSK', 'Share-XQII']</t>
+    <t>['Share-ECAQ', 'Share-IXCI', 'Share-FWBE', 'Share-ZOFA', 'Share-PLLK', 'Share-YFVZ', 'Share-ANFX', 'Share-PATS', 'Share-NDKR', 'Share-ALIY', 'Share-JWGF', 'Share-JGTW', 'Share-FAPS', 'Share-VCAX', 'Share-LFXB', 'Share-DWSK', 'Share-BMHD', 'Share-XQII', 'Share-ROOM', 'Share-GEBJ']</t>
   </si>
   <si>
     <t>name</t>
@@ -63,19 +66,13 @@
     <t>Share-PLLK</t>
   </si>
   <si>
-    <t>Share-MEQV</t>
+    <t>Share-YFVZ</t>
   </si>
   <si>
     <t>Share-ANFX</t>
   </si>
   <si>
-    <t>Share-PSMF</t>
-  </si>
-  <si>
     <t>Share-PATS</t>
-  </si>
-  <si>
-    <t>Share-VCXT</t>
   </si>
   <si>
     <t>Share-NDKR</t>
@@ -87,13 +84,13 @@
     <t>Share-JWGF</t>
   </si>
   <si>
-    <t>Share-FAKH</t>
-  </si>
-  <si>
     <t>Share-JGTW</t>
   </si>
   <si>
     <t>Share-FAPS</t>
+  </si>
+  <si>
+    <t>Share-VCAX</t>
   </si>
   <si>
     <t>Share-LFXB</t>
@@ -102,7 +99,16 @@
     <t>Share-DWSK</t>
   </si>
   <si>
+    <t>Share-BMHD</t>
+  </si>
+  <si>
     <t>Share-XQII</t>
+  </si>
+  <si>
+    <t>Share-ROOM</t>
+  </si>
+  <si>
+    <t>Share-GEBJ</t>
   </si>
   <si>
     <t>excluded lines</t>
@@ -475,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,21 +503,27 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>499.99</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>697.929548</v>
+        <v>499.95</v>
       </c>
       <c r="D2">
-        <v>197.9395479999999</v>
+        <v>697.89</v>
       </c>
       <c r="E2">
+        <v>197.94</v>
+      </c>
+      <c r="F2">
         <v>463</v>
       </c>
     </row>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,282 +542,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>31.66</v>
       </c>
       <c r="C2">
-        <v>44.162534</v>
+        <v>44.16</v>
       </c>
       <c r="D2">
-        <v>12.502534</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>26.32</v>
       </c>
       <c r="C3">
-        <v>36.69007999999999</v>
+        <v>36.69</v>
       </c>
       <c r="D3">
-        <v>10.37007999999999</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>18.31</v>
       </c>
       <c r="C4">
-        <v>25.601042</v>
+        <v>25.6</v>
       </c>
       <c r="D4">
-        <v>7.291042000000001</v>
+        <v>7.290000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>25.32</v>
       </c>
       <c r="C5">
-        <v>35.392296</v>
+        <v>35.39</v>
       </c>
       <c r="D5">
-        <v>10.072296</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>19.94</v>
       </c>
       <c r="C6">
-        <v>27.898054</v>
+        <v>27.9</v>
       </c>
       <c r="D6">
-        <v>7.958054000000001</v>
+        <v>7.959999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>5.49</v>
+        <v>22.55</v>
       </c>
       <c r="C7">
-        <v>7.591023000000001</v>
+        <v>31.37</v>
       </c>
       <c r="D7">
-        <v>2.101023000000001</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>38.55</v>
       </c>
       <c r="C8">
-        <v>53.86205999999999</v>
+        <v>53.86</v>
       </c>
       <c r="D8">
-        <v>15.31206</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>33.45</v>
+        <v>27.7</v>
       </c>
       <c r="C9">
-        <v>46.452015</v>
+        <v>38.77</v>
       </c>
       <c r="D9">
-        <v>13.002015</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>27.7</v>
+        <v>33.06</v>
       </c>
       <c r="C10">
-        <v>38.77169</v>
+        <v>46.25</v>
       </c>
       <c r="D10">
-        <v>11.07169</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>29.19</v>
+        <v>29.08</v>
       </c>
       <c r="C11">
-        <v>40.638318</v>
+        <v>40.69</v>
       </c>
       <c r="D11">
-        <v>11.448318</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>33.06</v>
+        <v>48.69</v>
       </c>
       <c r="C12">
-        <v>46.254246</v>
+        <v>68.13</v>
       </c>
       <c r="D12">
-        <v>13.194246</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>29.08</v>
+        <v>35.29</v>
       </c>
       <c r="C13">
-        <v>40.691644</v>
+        <v>49.2</v>
       </c>
       <c r="D13">
-        <v>11.611644</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>48.69</v>
+        <v>32.57</v>
       </c>
       <c r="C14">
-        <v>68.131917</v>
+        <v>45.45</v>
       </c>
       <c r="D14">
-        <v>19.441917</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>7.65</v>
+        <v>27.42</v>
       </c>
       <c r="C15">
-        <v>10.59219</v>
+        <v>38.11</v>
       </c>
       <c r="D15">
-        <v>2.94219</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>35.29</v>
+        <v>14.83</v>
       </c>
       <c r="C16">
-        <v>49.20484699999999</v>
+        <v>20.73</v>
       </c>
       <c r="D16">
-        <v>13.91484699999999</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>32.57</v>
+        <v>29.49</v>
       </c>
       <c r="C17">
-        <v>45.448178</v>
+        <v>41.09</v>
       </c>
       <c r="D17">
-        <v>12.878178</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>14.83</v>
+        <v>4.85</v>
       </c>
       <c r="C18">
-        <v>20.730857</v>
+        <v>6.71</v>
       </c>
       <c r="D18">
-        <v>5.900857</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>29.49</v>
+        <v>13.42</v>
       </c>
       <c r="C19">
-        <v>41.09431499999999</v>
+        <v>18.72</v>
       </c>
       <c r="D19">
-        <v>11.604315</v>
+        <v>5.299999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>13.42</v>
+        <v>15.06</v>
       </c>
       <c r="C20">
-        <v>18.722242</v>
+        <v>20.97</v>
       </c>
       <c r="D20">
-        <v>5.302242000000001</v>
+        <v>5.909999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>5.87</v>
+      </c>
+      <c r="C21">
+        <v>8.1</v>
+      </c>
+      <c r="D21">
+        <v>2.23</v>
       </c>
     </row>
   </sheetData>
@@ -823,10 +849,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -834,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -842,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -850,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -858,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -866,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -874,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -882,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -890,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -898,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -906,7 +932,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -914,7 +940,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -922,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -930,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -938,7 +964,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -946,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -954,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -962,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -970,7 +996,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -978,7 +1004,7 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -986,7 +1012,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -994,7 +1020,7 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1002,7 +1028,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1010,7 +1036,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1018,7 +1044,7 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1026,7 +1052,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1034,7 +1060,7 @@
         <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1042,7 +1068,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1050,7 +1076,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1058,7 +1084,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1066,7 +1092,7 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1074,7 +1100,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1082,7 +1108,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1090,7 +1116,7 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1098,7 +1124,7 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1106,7 +1132,7 @@
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1114,7 +1140,7 @@
         <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1122,7 +1148,7 @@
         <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1130,7 +1156,7 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1138,7 +1164,7 @@
         <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1146,7 +1172,7 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1154,7 +1180,7 @@
         <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1162,7 +1188,7 @@
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1170,7 +1196,7 @@
         <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1178,7 +1204,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1186,7 +1212,7 @@
         <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1194,7 +1220,7 @@
         <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1202,7 +1228,7 @@
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1210,7 +1236,7 @@
         <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1218,7 +1244,7 @@
         <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1226,7 +1252,7 @@
         <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1234,7 +1260,7 @@
         <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1242,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1250,7 +1276,7 @@
         <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1258,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1266,7 +1292,7 @@
         <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1274,7 +1300,7 @@
         <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1282,7 +1308,7 @@
         <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1290,7 +1316,7 @@
         <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1298,7 +1324,7 @@
         <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1306,7 +1332,7 @@
         <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1314,7 +1340,7 @@
         <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1322,7 +1348,7 @@
         <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1330,7 +1356,7 @@
         <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1338,7 +1364,7 @@
         <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1346,7 +1372,7 @@
         <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1354,7 +1380,7 @@
         <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1362,7 +1388,7 @@
         <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1370,7 +1396,7 @@
         <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1378,7 +1404,7 @@
         <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1386,7 +1412,7 @@
         <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1394,7 +1420,7 @@
         <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1402,7 +1428,7 @@
         <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1410,7 +1436,7 @@
         <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1418,7 +1444,7 @@
         <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1426,7 +1452,7 @@
         <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1434,7 +1460,7 @@
         <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1442,7 +1468,7 @@
         <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1450,7 +1476,7 @@
         <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1458,7 +1484,7 @@
         <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1466,7 +1492,7 @@
         <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1474,7 +1500,7 @@
         <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1482,7 +1508,7 @@
         <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1490,7 +1516,7 @@
         <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1498,7 +1524,7 @@
         <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1506,7 +1532,7 @@
         <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1514,7 +1540,7 @@
         <v>191</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1522,7 +1548,7 @@
         <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1530,7 +1556,7 @@
         <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1538,7 +1564,7 @@
         <v>195</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1546,7 +1572,7 @@
         <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1554,7 +1580,7 @@
         <v>200</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1562,7 +1588,7 @@
         <v>202</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1570,7 +1596,7 @@
         <v>206</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1578,7 +1604,7 @@
         <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1586,7 +1612,7 @@
         <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1594,7 +1620,7 @@
         <v>210</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1602,7 +1628,7 @@
         <v>211</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1610,7 +1636,7 @@
         <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1618,7 +1644,7 @@
         <v>213</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1626,7 +1652,7 @@
         <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1634,7 +1660,7 @@
         <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1642,7 +1668,7 @@
         <v>223</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1650,7 +1676,7 @@
         <v>224</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1658,7 +1684,7 @@
         <v>225</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1666,7 +1692,7 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1674,7 +1700,7 @@
         <v>231</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1682,7 +1708,7 @@
         <v>235</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1690,7 +1716,7 @@
         <v>236</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1698,7 +1724,7 @@
         <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1706,7 +1732,7 @@
         <v>239</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1714,7 +1740,7 @@
         <v>241</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1722,7 +1748,7 @@
         <v>247</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1730,7 +1756,7 @@
         <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1738,7 +1764,7 @@
         <v>254</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1746,7 +1772,7 @@
         <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1754,7 +1780,7 @@
         <v>261</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1762,7 +1788,7 @@
         <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1770,7 +1796,7 @@
         <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1778,7 +1804,7 @@
         <v>270</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1786,7 +1812,7 @@
         <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1794,7 +1820,7 @@
         <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1802,7 +1828,7 @@
         <v>276</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1810,7 +1836,7 @@
         <v>277</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1818,7 +1844,7 @@
         <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1826,7 +1852,7 @@
         <v>287</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1834,7 +1860,7 @@
         <v>291</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1842,7 +1868,7 @@
         <v>296</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1850,7 +1876,7 @@
         <v>298</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1858,7 +1884,7 @@
         <v>299</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1866,7 +1892,7 @@
         <v>300</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1874,7 +1900,7 @@
         <v>301</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1882,7 +1908,7 @@
         <v>303</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1890,7 +1916,7 @@
         <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1898,7 +1924,7 @@
         <v>312</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1906,7 +1932,7 @@
         <v>316</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1914,7 +1940,7 @@
         <v>319</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1922,7 +1948,7 @@
         <v>324</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1930,7 +1956,7 @@
         <v>327</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1938,7 +1964,7 @@
         <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1946,7 +1972,7 @@
         <v>334</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1954,7 +1980,7 @@
         <v>335</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1962,7 +1988,7 @@
         <v>336</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1970,7 +1996,7 @@
         <v>338</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1978,7 +2004,7 @@
         <v>339</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1986,7 +2012,7 @@
         <v>340</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1994,7 +2020,7 @@
         <v>341</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2002,7 +2028,7 @@
         <v>345</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2010,7 +2036,7 @@
         <v>349</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2018,7 +2044,7 @@
         <v>351</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2026,7 +2052,7 @@
         <v>352</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2034,7 +2060,7 @@
         <v>354</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2042,7 +2068,7 @@
         <v>355</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2050,7 +2076,7 @@
         <v>356</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2058,7 +2084,7 @@
         <v>360</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2066,7 +2092,7 @@
         <v>361</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2074,7 +2100,7 @@
         <v>363</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2082,7 +2108,7 @@
         <v>365</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2090,7 +2116,7 @@
         <v>369</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2098,7 +2124,7 @@
         <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2106,7 +2132,7 @@
         <v>371</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2114,7 +2140,7 @@
         <v>372</v>
       </c>
       <c r="B162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2122,7 +2148,7 @@
         <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2130,7 +2156,7 @@
         <v>375</v>
       </c>
       <c r="B164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2138,7 +2164,7 @@
         <v>376</v>
       </c>
       <c r="B165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2146,7 +2172,7 @@
         <v>377</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2154,7 +2180,7 @@
         <v>379</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2162,7 +2188,7 @@
         <v>381</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2170,7 +2196,7 @@
         <v>383</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2178,7 +2204,7 @@
         <v>385</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2186,7 +2212,7 @@
         <v>386</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2194,7 +2220,7 @@
         <v>387</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2202,7 +2228,7 @@
         <v>388</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2210,7 +2236,7 @@
         <v>389</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2218,7 +2244,7 @@
         <v>390</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2226,7 +2252,7 @@
         <v>391</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2234,7 +2260,7 @@
         <v>394</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2242,7 +2268,7 @@
         <v>395</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2250,7 +2276,7 @@
         <v>396</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2258,7 +2284,7 @@
         <v>397</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2266,7 +2292,7 @@
         <v>399</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2274,7 +2300,7 @@
         <v>400</v>
       </c>
       <c r="B182" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2282,7 +2308,7 @@
         <v>401</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2290,7 +2316,7 @@
         <v>403</v>
       </c>
       <c r="B184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2298,7 +2324,7 @@
         <v>404</v>
       </c>
       <c r="B185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2306,7 +2332,7 @@
         <v>405</v>
       </c>
       <c r="B186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2314,7 +2340,7 @@
         <v>407</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2322,7 +2348,7 @@
         <v>408</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2330,7 +2356,7 @@
         <v>409</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2338,7 +2364,7 @@
         <v>413</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2346,7 +2372,7 @@
         <v>414</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2354,7 +2380,7 @@
         <v>416</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2362,7 +2388,7 @@
         <v>417</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2370,7 +2396,7 @@
         <v>418</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2378,7 +2404,7 @@
         <v>420</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2386,7 +2412,7 @@
         <v>427</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2394,7 +2420,7 @@
         <v>431</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2402,7 +2428,7 @@
         <v>432</v>
       </c>
       <c r="B198" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2410,7 +2436,7 @@
         <v>433</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2418,7 +2444,7 @@
         <v>434</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2426,7 +2452,7 @@
         <v>439</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2434,7 +2460,7 @@
         <v>444</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2442,7 +2468,7 @@
         <v>445</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2450,7 +2476,7 @@
         <v>446</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2458,7 +2484,7 @@
         <v>447</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2466,7 +2492,7 @@
         <v>452</v>
       </c>
       <c r="B206" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2474,7 +2500,7 @@
         <v>453</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2482,7 +2508,7 @@
         <v>456</v>
       </c>
       <c r="B208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2490,7 +2516,7 @@
         <v>459</v>
       </c>
       <c r="B209" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2498,7 +2524,7 @@
         <v>460</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2506,7 +2532,7 @@
         <v>462</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2514,7 +2540,7 @@
         <v>463</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2522,7 +2548,7 @@
         <v>464</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2530,7 +2556,7 @@
         <v>468</v>
       </c>
       <c r="B214" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2538,7 +2564,7 @@
         <v>469</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2546,7 +2572,7 @@
         <v>472</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2554,7 +2580,7 @@
         <v>474</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2562,7 +2588,7 @@
         <v>475</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2570,7 +2596,7 @@
         <v>476</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2578,7 +2604,7 @@
         <v>477</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2586,7 +2612,7 @@
         <v>478</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2594,7 +2620,7 @@
         <v>479</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2602,7 +2628,7 @@
         <v>482</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2610,7 +2636,7 @@
         <v>483</v>
       </c>
       <c r="B224" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2618,7 +2644,7 @@
         <v>484</v>
       </c>
       <c r="B225" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2626,7 +2652,7 @@
         <v>485</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2634,7 +2660,7 @@
         <v>490</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2642,7 +2668,7 @@
         <v>492</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2650,7 +2676,7 @@
         <v>495</v>
       </c>
       <c r="B229" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2658,7 +2684,7 @@
         <v>497</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2666,7 +2692,7 @@
         <v>499</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2674,7 +2700,7 @@
         <v>501</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2682,7 +2708,7 @@
         <v>502</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2690,7 +2716,7 @@
         <v>503</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2698,7 +2724,7 @@
         <v>505</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2706,7 +2732,7 @@
         <v>506</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2714,7 +2740,7 @@
         <v>509</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2722,7 +2748,7 @@
         <v>510</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2730,7 +2756,7 @@
         <v>512</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2738,7 +2764,7 @@
         <v>520</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2746,7 +2772,7 @@
         <v>522</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2754,7 +2780,7 @@
         <v>524</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2762,7 +2788,7 @@
         <v>526</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2770,7 +2796,7 @@
         <v>530</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2778,7 +2804,7 @@
         <v>531</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2786,7 +2812,7 @@
         <v>533</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2794,7 +2820,7 @@
         <v>535</v>
       </c>
       <c r="B247" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2802,7 +2828,7 @@
         <v>537</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2810,7 +2836,7 @@
         <v>538</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2818,7 +2844,7 @@
         <v>539</v>
       </c>
       <c r="B250" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2826,7 +2852,7 @@
         <v>540</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2834,7 +2860,7 @@
         <v>543</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2842,7 +2868,7 @@
         <v>545</v>
       </c>
       <c r="B253" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2850,7 +2876,7 @@
         <v>546</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2858,7 +2884,7 @@
         <v>547</v>
       </c>
       <c r="B255" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2866,7 +2892,7 @@
         <v>548</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2874,7 +2900,7 @@
         <v>549</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2882,7 +2908,7 @@
         <v>554</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2890,7 +2916,7 @@
         <v>555</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2898,7 +2924,7 @@
         <v>556</v>
       </c>
       <c r="B260" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2906,7 +2932,7 @@
         <v>567</v>
       </c>
       <c r="B261" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2914,7 +2940,7 @@
         <v>568</v>
       </c>
       <c r="B262" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2922,7 +2948,7 @@
         <v>570</v>
       </c>
       <c r="B263" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2930,7 +2956,7 @@
         <v>573</v>
       </c>
       <c r="B264" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2938,7 +2964,7 @@
         <v>574</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2946,7 +2972,7 @@
         <v>575</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2954,7 +2980,7 @@
         <v>577</v>
       </c>
       <c r="B267" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2962,7 +2988,7 @@
         <v>578</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2970,7 +2996,7 @@
         <v>579</v>
       </c>
       <c r="B269" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2978,7 +3004,7 @@
         <v>582</v>
       </c>
       <c r="B270" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2986,7 +3012,7 @@
         <v>585</v>
       </c>
       <c r="B271" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2994,7 +3020,7 @@
         <v>587</v>
       </c>
       <c r="B272" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3002,7 +3028,7 @@
         <v>588</v>
       </c>
       <c r="B273" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3010,7 +3036,7 @@
         <v>591</v>
       </c>
       <c r="B274" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3018,7 +3044,7 @@
         <v>592</v>
       </c>
       <c r="B275" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3026,7 +3052,7 @@
         <v>593</v>
       </c>
       <c r="B276" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3034,7 +3060,7 @@
         <v>594</v>
       </c>
       <c r="B277" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3042,7 +3068,7 @@
         <v>597</v>
       </c>
       <c r="B278" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3050,7 +3076,7 @@
         <v>598</v>
       </c>
       <c r="B279" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3058,7 +3084,7 @@
         <v>599</v>
       </c>
       <c r="B280" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3066,7 +3092,7 @@
         <v>600</v>
       </c>
       <c r="B281" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3074,7 +3100,7 @@
         <v>601</v>
       </c>
       <c r="B282" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3082,7 +3108,7 @@
         <v>604</v>
       </c>
       <c r="B283" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3090,7 +3116,7 @@
         <v>605</v>
       </c>
       <c r="B284" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3098,7 +3124,7 @@
         <v>610</v>
       </c>
       <c r="B285" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3106,7 +3132,7 @@
         <v>611</v>
       </c>
       <c r="B286" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3114,7 +3140,7 @@
         <v>619</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3122,7 +3148,7 @@
         <v>622</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3130,7 +3156,7 @@
         <v>624</v>
       </c>
       <c r="B289" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3138,7 +3164,7 @@
         <v>625</v>
       </c>
       <c r="B290" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3146,7 +3172,7 @@
         <v>626</v>
       </c>
       <c r="B291" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3154,7 +3180,7 @@
         <v>629</v>
       </c>
       <c r="B292" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3162,7 +3188,7 @@
         <v>632</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3170,7 +3196,7 @@
         <v>633</v>
       </c>
       <c r="B294" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3178,7 +3204,7 @@
         <v>634</v>
       </c>
       <c r="B295" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3186,7 +3212,7 @@
         <v>635</v>
       </c>
       <c r="B296" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3194,7 +3220,7 @@
         <v>636</v>
       </c>
       <c r="B297" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3202,7 +3228,7 @@
         <v>637</v>
       </c>
       <c r="B298" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3210,7 +3236,7 @@
         <v>638</v>
       </c>
       <c r="B299" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3218,7 +3244,7 @@
         <v>640</v>
       </c>
       <c r="B300" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3226,7 +3252,7 @@
         <v>641</v>
       </c>
       <c r="B301" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3234,7 +3260,7 @@
         <v>646</v>
       </c>
       <c r="B302" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3242,7 +3268,7 @@
         <v>647</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3250,7 +3276,7 @@
         <v>648</v>
       </c>
       <c r="B304" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3258,7 +3284,7 @@
         <v>649</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3266,7 +3292,7 @@
         <v>651</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3274,7 +3300,7 @@
         <v>653</v>
       </c>
       <c r="B307" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3282,7 +3308,7 @@
         <v>655</v>
       </c>
       <c r="B308" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3290,7 +3316,7 @@
         <v>659</v>
       </c>
       <c r="B309" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3298,7 +3324,7 @@
         <v>660</v>
       </c>
       <c r="B310" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3306,7 +3332,7 @@
         <v>663</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3314,7 +3340,7 @@
         <v>665</v>
       </c>
       <c r="B312" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3322,7 +3348,7 @@
         <v>666</v>
       </c>
       <c r="B313" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3330,7 +3356,7 @@
         <v>670</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3338,7 +3364,7 @@
         <v>674</v>
       </c>
       <c r="B315" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3346,7 +3372,7 @@
         <v>675</v>
       </c>
       <c r="B316" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3354,7 +3380,7 @@
         <v>678</v>
       </c>
       <c r="B317" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3362,7 +3388,7 @@
         <v>680</v>
       </c>
       <c r="B318" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3370,7 +3396,7 @@
         <v>681</v>
       </c>
       <c r="B319" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3378,7 +3404,7 @@
         <v>686</v>
       </c>
       <c r="B320" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3386,7 +3412,7 @@
         <v>688</v>
       </c>
       <c r="B321" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3394,7 +3420,7 @@
         <v>689</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3402,7 +3428,7 @@
         <v>690</v>
       </c>
       <c r="B323" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3410,7 +3436,7 @@
         <v>693</v>
       </c>
       <c r="B324" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3418,7 +3444,7 @@
         <v>694</v>
       </c>
       <c r="B325" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3426,7 +3452,7 @@
         <v>698</v>
       </c>
       <c r="B326" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3434,7 +3460,7 @@
         <v>702</v>
       </c>
       <c r="B327" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3442,7 +3468,7 @@
         <v>704</v>
       </c>
       <c r="B328" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3450,7 +3476,7 @@
         <v>706</v>
       </c>
       <c r="B329" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3458,7 +3484,7 @@
         <v>707</v>
       </c>
       <c r="B330" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3466,7 +3492,7 @@
         <v>714</v>
       </c>
       <c r="B331" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3474,7 +3500,7 @@
         <v>716</v>
       </c>
       <c r="B332" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3482,7 +3508,7 @@
         <v>718</v>
       </c>
       <c r="B333" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3490,7 +3516,7 @@
         <v>722</v>
       </c>
       <c r="B334" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3498,7 +3524,7 @@
         <v>723</v>
       </c>
       <c r="B335" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3506,7 +3532,7 @@
         <v>724</v>
       </c>
       <c r="B336" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3514,7 +3540,7 @@
         <v>725</v>
       </c>
       <c r="B337" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3522,7 +3548,7 @@
         <v>726</v>
       </c>
       <c r="B338" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3530,7 +3556,7 @@
         <v>729</v>
       </c>
       <c r="B339" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3538,7 +3564,7 @@
         <v>733</v>
       </c>
       <c r="B340" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3546,7 +3572,7 @@
         <v>736</v>
       </c>
       <c r="B341" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3554,7 +3580,7 @@
         <v>743</v>
       </c>
       <c r="B342" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3562,7 +3588,7 @@
         <v>748</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3570,7 +3596,7 @@
         <v>749</v>
       </c>
       <c r="B344" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3578,7 +3604,7 @@
         <v>750</v>
       </c>
       <c r="B345" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3586,7 +3612,7 @@
         <v>751</v>
       </c>
       <c r="B346" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3594,7 +3620,7 @@
         <v>754</v>
       </c>
       <c r="B347" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3602,7 +3628,7 @@
         <v>757</v>
       </c>
       <c r="B348" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3610,7 +3636,7 @@
         <v>759</v>
       </c>
       <c r="B349" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3618,7 +3644,7 @@
         <v>761</v>
       </c>
       <c r="B350" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3626,7 +3652,7 @@
         <v>762</v>
       </c>
       <c r="B351" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3634,7 +3660,7 @@
         <v>764</v>
       </c>
       <c r="B352" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3642,7 +3668,7 @@
         <v>766</v>
       </c>
       <c r="B353" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3650,7 +3676,7 @@
         <v>767</v>
       </c>
       <c r="B354" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3658,7 +3684,7 @@
         <v>770</v>
       </c>
       <c r="B355" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3666,7 +3692,7 @@
         <v>771</v>
       </c>
       <c r="B356" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3674,7 +3700,7 @@
         <v>774</v>
       </c>
       <c r="B357" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3682,7 +3708,7 @@
         <v>776</v>
       </c>
       <c r="B358" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3690,7 +3716,7 @@
         <v>780</v>
       </c>
       <c r="B359" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3698,7 +3724,7 @@
         <v>782</v>
       </c>
       <c r="B360" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3706,7 +3732,7 @@
         <v>784</v>
       </c>
       <c r="B361" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3714,7 +3740,7 @@
         <v>785</v>
       </c>
       <c r="B362" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3722,7 +3748,7 @@
         <v>792</v>
       </c>
       <c r="B363" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3730,7 +3756,7 @@
         <v>796</v>
       </c>
       <c r="B364" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3738,7 +3764,7 @@
         <v>802</v>
       </c>
       <c r="B365" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3746,7 +3772,7 @@
         <v>803</v>
       </c>
       <c r="B366" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3754,7 +3780,7 @@
         <v>804</v>
       </c>
       <c r="B367" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3762,7 +3788,7 @@
         <v>805</v>
       </c>
       <c r="B368" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3770,7 +3796,7 @@
         <v>807</v>
       </c>
       <c r="B369" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3778,7 +3804,7 @@
         <v>808</v>
       </c>
       <c r="B370" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3786,7 +3812,7 @@
         <v>812</v>
       </c>
       <c r="B371" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3794,7 +3820,7 @@
         <v>813</v>
       </c>
       <c r="B372" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3802,7 +3828,7 @@
         <v>815</v>
       </c>
       <c r="B373" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3810,7 +3836,7 @@
         <v>816</v>
       </c>
       <c r="B374" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3818,7 +3844,7 @@
         <v>817</v>
       </c>
       <c r="B375" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3826,7 +3852,7 @@
         <v>821</v>
       </c>
       <c r="B376" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3834,7 +3860,7 @@
         <v>824</v>
       </c>
       <c r="B377" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3842,7 +3868,7 @@
         <v>825</v>
       </c>
       <c r="B378" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3850,7 +3876,7 @@
         <v>827</v>
       </c>
       <c r="B379" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3858,7 +3884,7 @@
         <v>832</v>
       </c>
       <c r="B380" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3866,7 +3892,7 @@
         <v>833</v>
       </c>
       <c r="B381" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3874,7 +3900,7 @@
         <v>834</v>
       </c>
       <c r="B382" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3882,7 +3908,7 @@
         <v>835</v>
       </c>
       <c r="B383" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3890,7 +3916,7 @@
         <v>836</v>
       </c>
       <c r="B384" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3898,7 +3924,7 @@
         <v>837</v>
       </c>
       <c r="B385" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3906,7 +3932,7 @@
         <v>840</v>
       </c>
       <c r="B386" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3914,7 +3940,7 @@
         <v>842</v>
       </c>
       <c r="B387" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3922,7 +3948,7 @@
         <v>844</v>
       </c>
       <c r="B388" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3930,7 +3956,7 @@
         <v>846</v>
       </c>
       <c r="B389" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3938,7 +3964,7 @@
         <v>847</v>
       </c>
       <c r="B390" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3946,7 +3972,7 @@
         <v>848</v>
       </c>
       <c r="B391" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3954,7 +3980,7 @@
         <v>849</v>
       </c>
       <c r="B392" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3962,7 +3988,7 @@
         <v>852</v>
       </c>
       <c r="B393" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3970,7 +3996,7 @@
         <v>854</v>
       </c>
       <c r="B394" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3978,7 +4004,7 @@
         <v>855</v>
       </c>
       <c r="B395" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3986,7 +4012,7 @@
         <v>862</v>
       </c>
       <c r="B396" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3994,7 +4020,7 @@
         <v>863</v>
       </c>
       <c r="B397" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4002,7 +4028,7 @@
         <v>864</v>
       </c>
       <c r="B398" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4010,7 +4036,7 @@
         <v>871</v>
       </c>
       <c r="B399" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4018,7 +4044,7 @@
         <v>872</v>
       </c>
       <c r="B400" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4026,7 +4052,7 @@
         <v>873</v>
       </c>
       <c r="B401" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4034,7 +4060,7 @@
         <v>874</v>
       </c>
       <c r="B402" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4042,7 +4068,7 @@
         <v>877</v>
       </c>
       <c r="B403" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4050,7 +4076,7 @@
         <v>881</v>
       </c>
       <c r="B404" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4058,7 +4084,7 @@
         <v>883</v>
       </c>
       <c r="B405" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4066,7 +4092,7 @@
         <v>887</v>
       </c>
       <c r="B406" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4074,7 +4100,7 @@
         <v>888</v>
       </c>
       <c r="B407" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4082,7 +4108,7 @@
         <v>889</v>
       </c>
       <c r="B408" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4090,7 +4116,7 @@
         <v>892</v>
       </c>
       <c r="B409" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4098,7 +4124,7 @@
         <v>893</v>
       </c>
       <c r="B410" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4106,7 +4132,7 @@
         <v>894</v>
       </c>
       <c r="B411" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4114,7 +4140,7 @@
         <v>897</v>
       </c>
       <c r="B412" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4122,7 +4148,7 @@
         <v>898</v>
       </c>
       <c r="B413" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4130,7 +4156,7 @@
         <v>899</v>
       </c>
       <c r="B414" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4138,7 +4164,7 @@
         <v>900</v>
       </c>
       <c r="B415" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4146,7 +4172,7 @@
         <v>901</v>
       </c>
       <c r="B416" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -4154,7 +4180,7 @@
         <v>903</v>
       </c>
       <c r="B417" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -4162,7 +4188,7 @@
         <v>907</v>
       </c>
       <c r="B418" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -4170,7 +4196,7 @@
         <v>910</v>
       </c>
       <c r="B419" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -4178,7 +4204,7 @@
         <v>911</v>
       </c>
       <c r="B420" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -4186,7 +4212,7 @@
         <v>912</v>
       </c>
       <c r="B421" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -4194,7 +4220,7 @@
         <v>914</v>
       </c>
       <c r="B422" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -4202,7 +4228,7 @@
         <v>915</v>
       </c>
       <c r="B423" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -4210,7 +4236,7 @@
         <v>916</v>
       </c>
       <c r="B424" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -4218,7 +4244,7 @@
         <v>918</v>
       </c>
       <c r="B425" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -4226,7 +4252,7 @@
         <v>923</v>
       </c>
       <c r="B426" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -4234,7 +4260,7 @@
         <v>925</v>
       </c>
       <c r="B427" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -4242,7 +4268,7 @@
         <v>926</v>
       </c>
       <c r="B428" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -4250,7 +4276,7 @@
         <v>927</v>
       </c>
       <c r="B429" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -4258,7 +4284,7 @@
         <v>928</v>
       </c>
       <c r="B430" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -4266,7 +4292,7 @@
         <v>931</v>
       </c>
       <c r="B431" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -4274,7 +4300,7 @@
         <v>933</v>
       </c>
       <c r="B432" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -4282,7 +4308,7 @@
         <v>934</v>
       </c>
       <c r="B433" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -4290,7 +4316,7 @@
         <v>935</v>
       </c>
       <c r="B434" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -4298,7 +4324,7 @@
         <v>937</v>
       </c>
       <c r="B435" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -4306,7 +4332,7 @@
         <v>939</v>
       </c>
       <c r="B436" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -4314,7 +4340,7 @@
         <v>942</v>
       </c>
       <c r="B437" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -4322,7 +4348,7 @@
         <v>946</v>
       </c>
       <c r="B438" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -4330,7 +4356,7 @@
         <v>948</v>
       </c>
       <c r="B439" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -4338,7 +4364,7 @@
         <v>950</v>
       </c>
       <c r="B440" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -4346,7 +4372,7 @@
         <v>951</v>
       </c>
       <c r="B441" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4354,7 +4380,7 @@
         <v>952</v>
       </c>
       <c r="B442" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -4362,7 +4388,7 @@
         <v>953</v>
       </c>
       <c r="B443" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -4370,7 +4396,7 @@
         <v>954</v>
       </c>
       <c r="B444" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4378,7 +4404,7 @@
         <v>955</v>
       </c>
       <c r="B445" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -4386,7 +4412,7 @@
         <v>956</v>
       </c>
       <c r="B446" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -4394,7 +4420,7 @@
         <v>957</v>
       </c>
       <c r="B447" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4402,7 +4428,7 @@
         <v>970</v>
       </c>
       <c r="B448" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4410,7 +4436,7 @@
         <v>972</v>
       </c>
       <c r="B449" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4418,7 +4444,7 @@
         <v>974</v>
       </c>
       <c r="B450" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4426,7 +4452,7 @@
         <v>975</v>
       </c>
       <c r="B451" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4434,7 +4460,7 @@
         <v>976</v>
       </c>
       <c r="B452" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4442,7 +4468,7 @@
         <v>977</v>
       </c>
       <c r="B453" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4450,7 +4476,7 @@
         <v>978</v>
       </c>
       <c r="B454" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4458,7 +4484,7 @@
         <v>979</v>
       </c>
       <c r="B455" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4466,7 +4492,7 @@
         <v>980</v>
       </c>
       <c r="B456" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4474,7 +4500,7 @@
         <v>985</v>
       </c>
       <c r="B457" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4482,7 +4508,7 @@
         <v>989</v>
       </c>
       <c r="B458" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4490,7 +4516,7 @@
         <v>991</v>
       </c>
       <c r="B459" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4498,7 +4524,7 @@
         <v>992</v>
       </c>
       <c r="B460" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4506,7 +4532,7 @@
         <v>995</v>
       </c>
       <c r="B461" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4514,7 +4540,7 @@
         <v>996</v>
       </c>
       <c r="B462" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4522,7 +4548,7 @@
         <v>998</v>
       </c>
       <c r="B463" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4530,7 +4556,7 @@
         <v>1000</v>
       </c>
       <c r="B464" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
